--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05706</v>
+        <v>0.6375143333333333</v>
       </c>
       <c r="H2">
-        <v>0.17118</v>
+        <v>1.912543</v>
       </c>
       <c r="I2">
-        <v>0.0005094349886539115</v>
+        <v>0.005637788761748074</v>
       </c>
       <c r="J2">
-        <v>0.0005094349886539115</v>
+        <v>0.005637788761748073</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>0.4639682120399999</v>
+        <v>2.419489510256778</v>
       </c>
       <c r="R2">
-        <v>4.17571390836</v>
+        <v>21.775405592311</v>
       </c>
       <c r="S2">
-        <v>1.065226306014695E-05</v>
+        <v>5.887056576819715E-05</v>
       </c>
       <c r="T2">
-        <v>1.065226306014695E-05</v>
+        <v>5.887056576819713E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05706</v>
+        <v>0.6375143333333333</v>
       </c>
       <c r="H3">
-        <v>0.17118</v>
+        <v>1.912543</v>
       </c>
       <c r="I3">
-        <v>0.0005094349886539115</v>
+        <v>0.005637788761748074</v>
       </c>
       <c r="J3">
-        <v>0.0005094349886539115</v>
+        <v>0.005637788761748073</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>13.88705730792</v>
+        <v>155.1559425450476</v>
       </c>
       <c r="R3">
-        <v>124.98351577128</v>
+        <v>1396.403482905428</v>
       </c>
       <c r="S3">
-        <v>0.000318833453966339</v>
+        <v>0.00377522534452131</v>
       </c>
       <c r="T3">
-        <v>0.000318833453966339</v>
+        <v>0.003775225344521309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05706</v>
+        <v>0.6375143333333333</v>
       </c>
       <c r="H4">
-        <v>0.17118</v>
+        <v>1.912543</v>
       </c>
       <c r="I4">
-        <v>0.0005094349886539115</v>
+        <v>0.005637788761748074</v>
       </c>
       <c r="J4">
-        <v>0.0005094349886539115</v>
+        <v>0.005637788761748073</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>1.90687383696</v>
+        <v>18.99880116548433</v>
       </c>
       <c r="R4">
-        <v>17.16186453264</v>
+        <v>170.989210489359</v>
       </c>
       <c r="S4">
-        <v>4.377998579794618E-05</v>
+        <v>0.0004622752728573904</v>
       </c>
       <c r="T4">
-        <v>4.377998579794618E-05</v>
+        <v>0.0004622752728573903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05706</v>
+        <v>0.6375143333333333</v>
       </c>
       <c r="H5">
-        <v>0.17118</v>
+        <v>1.912543</v>
       </c>
       <c r="I5">
-        <v>0.0005094349886539115</v>
+        <v>0.005637788761748074</v>
       </c>
       <c r="J5">
-        <v>0.0005094349886539115</v>
+        <v>0.005637788761748073</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>5.9309669433</v>
+        <v>55.13019482569489</v>
       </c>
       <c r="R5">
-        <v>53.37870248969999</v>
+        <v>496.171753431254</v>
       </c>
       <c r="S5">
-        <v>0.0001361692858294793</v>
+        <v>0.001341417578601176</v>
       </c>
       <c r="T5">
-        <v>0.0001361692858294793</v>
+        <v>0.001341417578601176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>316.215336</v>
       </c>
       <c r="I6">
-        <v>0.9410629519064889</v>
+        <v>0.9321386591533842</v>
       </c>
       <c r="J6">
-        <v>0.941062951906489</v>
+        <v>0.9321386591533841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>857.0736304682079</v>
+        <v>400.0326729565414</v>
       </c>
       <c r="R6">
-        <v>7713.662674213871</v>
+        <v>3600.294056608872</v>
       </c>
       <c r="S6">
-        <v>0.0196775846636567</v>
+        <v>0.009733520101195402</v>
       </c>
       <c r="T6">
-        <v>0.01967758466365671</v>
+        <v>0.0097335201011954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>316.215336</v>
       </c>
       <c r="I7">
-        <v>0.9410629519064889</v>
+        <v>0.9321386591533842</v>
       </c>
       <c r="J7">
-        <v>0.941062951906489</v>
+        <v>0.9321386591533841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>25653.11655961665</v>
       </c>
       <c r="R7">
-        <v>230878.0490365498</v>
+        <v>230878.0490365499</v>
       </c>
       <c r="S7">
-        <v>0.588970836394476</v>
+        <v>0.6241868291554865</v>
       </c>
       <c r="T7">
-        <v>0.5889708363944761</v>
+        <v>0.6241868291554864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>316.215336</v>
       </c>
       <c r="I8">
-        <v>0.9410629519064889</v>
+        <v>0.9321386591533842</v>
       </c>
       <c r="J8">
-        <v>0.941062951906489</v>
+        <v>0.9321386591533841</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>3522.507016379925</v>
+        <v>3141.216848008552</v>
       </c>
       <c r="R8">
-        <v>31702.56314741933</v>
+        <v>28270.95163207697</v>
       </c>
       <c r="S8">
-        <v>0.08087336674361945</v>
+        <v>0.0764315002230493</v>
       </c>
       <c r="T8">
-        <v>0.08087336674361946</v>
+        <v>0.07643150022304927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>316.215336</v>
       </c>
       <c r="I9">
-        <v>0.9410629519064889</v>
+        <v>0.9321386591533842</v>
       </c>
       <c r="J9">
-        <v>0.941062951906489</v>
+        <v>0.9321386591533841</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>10956.08543510049</v>
+        <v>9115.096016430778</v>
       </c>
       <c r="R9">
-        <v>98604.76891590442</v>
+        <v>82035.86414787702</v>
       </c>
       <c r="S9">
-        <v>0.2515411641047368</v>
+        <v>0.221786809673653</v>
       </c>
       <c r="T9">
-        <v>0.2515411641047368</v>
+        <v>0.221786809673653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2544266666666666</v>
+        <v>1.055457</v>
       </c>
       <c r="H10">
-        <v>0.76328</v>
+        <v>3.166371</v>
       </c>
       <c r="I10">
-        <v>0.002271536033063193</v>
+        <v>0.009333819338610954</v>
       </c>
       <c r="J10">
-        <v>0.002271536033063194</v>
+        <v>0.009333819338610952</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>2.068802762506666</v>
+        <v>4.005662314563</v>
       </c>
       <c r="R10">
-        <v>18.61922486256</v>
+        <v>36.050960831067</v>
       </c>
       <c r="S10">
-        <v>4.749771789081061E-05</v>
+        <v>9.746502546714618E-05</v>
       </c>
       <c r="T10">
-        <v>4.749771789081062E-05</v>
+        <v>9.746502546714616E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2544266666666666</v>
+        <v>1.055457</v>
       </c>
       <c r="H11">
-        <v>0.76328</v>
+        <v>3.166371</v>
       </c>
       <c r="I11">
-        <v>0.002271536033063193</v>
+        <v>0.009333819338610954</v>
       </c>
       <c r="J11">
-        <v>0.002271536033063194</v>
+        <v>0.009333819338610952</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>61.92144585809777</v>
+        <v>256.873323607524</v>
       </c>
       <c r="R11">
-        <v>557.29301272288</v>
+        <v>2311.859912467716</v>
       </c>
       <c r="S11">
-        <v>0.001421656728259301</v>
+        <v>0.00625019361622577</v>
       </c>
       <c r="T11">
-        <v>0.001421656728259301</v>
+        <v>0.006250193616225769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2544266666666666</v>
+        <v>1.055457</v>
       </c>
       <c r="H12">
-        <v>0.76328</v>
+        <v>3.166371</v>
       </c>
       <c r="I12">
-        <v>0.002271536033063193</v>
+        <v>0.009333819338610954</v>
       </c>
       <c r="J12">
-        <v>0.002271536033063194</v>
+        <v>0.009333819338610952</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>8.502620997048886</v>
+        <v>31.454065631547</v>
       </c>
       <c r="R12">
-        <v>76.52358897344</v>
+        <v>283.086590683923</v>
       </c>
       <c r="S12">
-        <v>0.0001952119848104706</v>
+        <v>0.0007653344358755479</v>
       </c>
       <c r="T12">
-        <v>0.0001952119848104706</v>
+        <v>0.0007653344358755477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2544266666666666</v>
+        <v>1.055457</v>
       </c>
       <c r="H13">
-        <v>0.76328</v>
+        <v>3.166371</v>
       </c>
       <c r="I13">
-        <v>0.002271536033063193</v>
+        <v>0.009333819338610954</v>
       </c>
       <c r="J13">
-        <v>0.002271536033063194</v>
+        <v>0.009333819338610952</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>26.44577899568888</v>
+        <v>91.272536157582</v>
       </c>
       <c r="R13">
-        <v>238.0120109612</v>
+        <v>821.452825418238</v>
       </c>
       <c r="S13">
-        <v>0.0006071696021026111</v>
+        <v>0.002220826261042489</v>
       </c>
       <c r="T13">
-        <v>0.0006071696021026112</v>
+        <v>0.002220826261042488</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.289842333333333</v>
+        <v>5.980707</v>
       </c>
       <c r="H14">
-        <v>18.869527</v>
+        <v>17.942121</v>
       </c>
       <c r="I14">
-        <v>0.05615607707179387</v>
+        <v>0.05288973274625675</v>
       </c>
       <c r="J14">
-        <v>0.05615607707179387</v>
+        <v>0.05288973274625674</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>51.14417983543932</v>
+        <v>22.697933354313</v>
       </c>
       <c r="R14">
-        <v>460.2976185189539</v>
+        <v>204.281400188817</v>
       </c>
       <c r="S14">
-        <v>0.001174221085550563</v>
+        <v>0.0005522818646960884</v>
       </c>
       <c r="T14">
-        <v>0.001174221085550563</v>
+        <v>0.0005522818646960884</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.289842333333333</v>
+        <v>5.980707</v>
       </c>
       <c r="H15">
-        <v>18.869527</v>
+        <v>17.942121</v>
       </c>
       <c r="I15">
-        <v>0.05615607707179387</v>
+        <v>0.05288973274625675</v>
       </c>
       <c r="J15">
-        <v>0.05615607707179387</v>
+        <v>0.05288973274625674</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>1530.79917526781</v>
+        <v>1455.562931140524</v>
       </c>
       <c r="R15">
-        <v>13777.19257741029</v>
+        <v>13100.06638026472</v>
       </c>
       <c r="S15">
-        <v>0.03514567395794538</v>
+        <v>0.03541648471886281</v>
       </c>
       <c r="T15">
-        <v>0.03514567395794538</v>
+        <v>0.0354164847188628</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.289842333333333</v>
+        <v>5.980707</v>
       </c>
       <c r="H16">
-        <v>18.869527</v>
+        <v>17.942121</v>
       </c>
       <c r="I16">
-        <v>0.05615607707179387</v>
+        <v>0.05288973274625675</v>
       </c>
       <c r="J16">
-        <v>0.05615607707179387</v>
+        <v>0.05288973274625674</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>210.1986642838551</v>
+        <v>178.233268149297</v>
       </c>
       <c r="R16">
-        <v>1891.787978554696</v>
+        <v>1604.099413343673</v>
       </c>
       <c r="S16">
-        <v>0.004825958780663406</v>
+        <v>0.004336738510410126</v>
       </c>
       <c r="T16">
-        <v>0.004825958780663406</v>
+        <v>0.004336738510410125</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.289842333333333</v>
+        <v>5.980707</v>
       </c>
       <c r="H17">
-        <v>18.869527</v>
+        <v>17.942121</v>
       </c>
       <c r="I17">
-        <v>0.05615607707179387</v>
+        <v>0.05288973274625675</v>
       </c>
       <c r="J17">
-        <v>0.05615607707179387</v>
+        <v>0.05288973274625674</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>653.782806827356</v>
+        <v>517.192359239082</v>
       </c>
       <c r="R17">
-        <v>5884.045261446204</v>
+        <v>4654.731233151739</v>
       </c>
       <c r="S17">
-        <v>0.01501022324763452</v>
+        <v>0.01258422765228772</v>
       </c>
       <c r="T17">
-        <v>0.01501022324763452</v>
+        <v>0.01258422765228772</v>
       </c>
     </row>
   </sheetData>
